--- a/helpers/templates/articles/rdr1.xlsx
+++ b/helpers/templates/articles/rdr1.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flacocodes/Documents/GitHub/react-reducers/alpamed_sap_api/helpers/templates/articles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RFE ALPAMED\Desktop\alpamed_sap_api\helpers\templates\articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68533E4C-1969-3641-ACC2-8F066B48695A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D54C15-11C3-4ED5-A928-516300F43EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1837,7 +1850,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="229">
   <si>
     <t>ParentKey</t>
   </si>
@@ -2350,13 +2363,187 @@
   </si>
   <si>
     <t>SER-013</t>
+  </si>
+  <si>
+    <t>U_Booking</t>
+  </si>
+  <si>
+    <t>U_IMO</t>
+  </si>
+  <si>
+    <t>U_transporte</t>
+  </si>
+  <si>
+    <t>U_Placas</t>
+  </si>
+  <si>
+    <t>U_N_Operador</t>
+  </si>
+  <si>
+    <t>U_Bultos</t>
+  </si>
+  <si>
+    <t>U_Peso_Neto</t>
+  </si>
+  <si>
+    <t>U_Cont</t>
+  </si>
+  <si>
+    <t>U_V_Comercial</t>
+  </si>
+  <si>
+    <t>U_BL</t>
+  </si>
+  <si>
+    <t>U_E_Mercancia</t>
+  </si>
+  <si>
+    <t>U_N_Pedimento</t>
+  </si>
+  <si>
+    <t>U_L_Mecancia_P</t>
+  </si>
+  <si>
+    <t>U_L_Clave_Mercancia_P</t>
+  </si>
+  <si>
+    <t>U_L_Remitente</t>
+  </si>
+  <si>
+    <t>U_L_Clave_Pedimento</t>
+  </si>
+  <si>
+    <t>U_UMComercial</t>
+  </si>
+  <si>
+    <t>U_PaisOrigen</t>
+  </si>
+  <si>
+    <t>U_NoFactura</t>
+  </si>
+  <si>
+    <t>U_MontoUSD</t>
+  </si>
+  <si>
+    <t>U_Monto_IVA</t>
+  </si>
+  <si>
+    <t>U_Forma_pago_IVA</t>
+  </si>
+  <si>
+    <t>U_Tasa_IVA</t>
+  </si>
+  <si>
+    <t>U_C_U_Tarifa</t>
+  </si>
+  <si>
+    <t>U_U_M_Tarifa</t>
+  </si>
+  <si>
+    <t>U_COVE</t>
+  </si>
+  <si>
+    <t>U_Sec_pedimento</t>
+  </si>
+  <si>
+    <t>U_TCC</t>
+  </si>
+  <si>
+    <t>U_M_Comp</t>
+  </si>
+  <si>
+    <t>U_F_PCC</t>
+  </si>
+  <si>
+    <t>U_P_Vendedor</t>
+  </si>
+  <si>
+    <t>U_Lote</t>
+  </si>
+  <si>
+    <t>U_Seguros</t>
+  </si>
+  <si>
+    <t>U_Fletes</t>
+  </si>
+  <si>
+    <t>U_Embalajes</t>
+  </si>
+  <si>
+    <t>U_Otros</t>
+  </si>
+  <si>
+    <t>U_Incoterm</t>
+  </si>
+  <si>
+    <t>U_F_increm</t>
+  </si>
+  <si>
+    <t>U_FACTORME</t>
+  </si>
+  <si>
+    <t>U_Marca</t>
+  </si>
+  <si>
+    <t>U_Modelo</t>
+  </si>
+  <si>
+    <t>U_Serie</t>
+  </si>
+  <si>
+    <t>U_P_Comprador</t>
+  </si>
+  <si>
+    <t>U_FechaPedimento</t>
+  </si>
+  <si>
+    <t>U_PaisDestino</t>
+  </si>
+  <si>
+    <t>U_FraccionA</t>
+  </si>
+  <si>
+    <t>U_C_original</t>
+  </si>
+  <si>
+    <t>U_C_actual</t>
+  </si>
+  <si>
+    <t>U_M_D_original</t>
+  </si>
+  <si>
+    <t>U_M_D_actual</t>
+  </si>
+  <si>
+    <t>U_P_consumo</t>
+  </si>
+  <si>
+    <t>U_T_Tasa</t>
+  </si>
+  <si>
+    <t>U_M_IGI</t>
+  </si>
+  <si>
+    <t>U_FP_IGI</t>
+  </si>
+  <si>
+    <t>U_FActualizacion</t>
+  </si>
+  <si>
+    <t>U_IGI_actual</t>
+  </si>
+  <si>
+    <t>U_NSalida</t>
+  </si>
+  <si>
+    <t>U_Buque1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2393,6 +2580,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2777,15 +2971,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DA4"/>
+  <dimension ref="A1:FG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="DE1" workbookViewId="0">
+      <selection activeCell="DD7" sqref="DD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:163">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3101,8 +3295,182 @@
       <c r="DA1" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="DB1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>181</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>182</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>183</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>187</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>191</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>195</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>196</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>198</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>199</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>200</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>203</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>204</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>205</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>206</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>207</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>208</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>209</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>210</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>211</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>212</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>213</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>214</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>215</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>216</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>217</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>218</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>219</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>220</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>221</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>222</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>223</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>224</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>225</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>226</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:163">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3418,8 +3786,182 @@
       <c r="DA2" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="DB2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>176</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>178</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>179</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>180</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>181</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>182</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>183</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>185</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>187</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>188</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>189</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>190</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>193</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>195</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>196</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>197</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>198</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>199</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>200</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>202</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>204</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>205</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>206</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>207</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>208</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>209</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>210</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>211</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>212</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>213</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>214</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>215</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>216</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>217</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>218</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>220</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>221</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>222</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>223</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>224</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>225</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>226</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>227</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>228</v>
+      </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:163">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3436,7 +3978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:163">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3454,6 +3996,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/helpers/templates/articles/rdr1.xlsx
+++ b/helpers/templates/articles/rdr1.xlsx
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="232">
   <si>
     <t>ParentKey</t>
   </si>
@@ -1372,6 +1372,12 @@
   </si>
   <si>
     <t>U_U_IDL_WMS</t>
+  </si>
+  <si>
+    <t>U_L_P_Origen</t>
+  </si>
+  <si>
+    <t>U_L_P_Destino</t>
   </si>
   <si>
     <t>U_Buque1</t>
@@ -1610,7 +1616,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -1884,7 +1889,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="164" width="8.86"/>
+    <col customWidth="1" min="1" max="166" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2374,16 +2379,22 @@
       <c r="FF1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="5" t="s">
+      <c r="FG1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="4" t="s">
+      <c r="FH1" s="5" t="s">
         <v>163</v>
+      </c>
+      <c r="FI1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -2392,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>4</v>
@@ -2404,7 +2415,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>8</v>
@@ -2413,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>11</v>
@@ -2422,34 +2433,34 @@
         <v>12</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>23</v>
@@ -2458,37 +2469,37 @@
         <v>24</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AI2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>36</v>
@@ -2515,19 +2526,19 @@
         <v>43</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AT2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AV2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX2" s="6" t="s">
         <v>49</v>
@@ -2539,52 +2550,52 @@
         <v>51</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BI2" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BK2" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BL2" s="6" t="s">
         <v>63</v>
       </c>
       <c r="BM2" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BN2" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BO2" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BP2" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BQ2" s="6" t="s">
         <v>68</v>
@@ -2593,16 +2604,16 @@
         <v>69</v>
       </c>
       <c r="BS2" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BT2" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BU2" s="6" t="s">
         <v>72</v>
       </c>
       <c r="BV2" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BW2" s="6" t="s">
         <v>74</v>
@@ -2617,7 +2628,7 @@
         <v>77</v>
       </c>
       <c r="CA2" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="CB2" s="6" t="s">
         <v>79</v>
@@ -2626,76 +2637,76 @@
         <v>80</v>
       </c>
       <c r="CD2" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="CE2" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="CF2" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="CG2" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="CH2" s="6" t="s">
         <v>85</v>
       </c>
       <c r="CI2" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="CJ2" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="CK2" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="CL2" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="CM2" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="CN2" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="CO2" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="CP2" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="CQ2" s="6" t="s">
         <v>94</v>
       </c>
       <c r="CR2" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="CS2" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="CT2" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="CU2" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="CV2" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="CW2" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="CX2" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="CY2" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="CZ2" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="DA2" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="DB2" s="4" t="s">
         <v>105</v>
@@ -2868,11 +2879,17 @@
       <c r="FF2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="FG2" s="5" t="s">
+      <c r="FG2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="FH2" s="4" t="s">
+      <c r="FH2" s="5" t="s">
         <v>163</v>
+      </c>
+      <c r="FI2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ2" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -2883,7 +2900,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E3" s="4">
         <v>1.0</v>
@@ -2900,7 +2917,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E4" s="4">
         <v>2.0</v>
@@ -3109,786 +3126,6 @@
     <row r="218" ht="15.75" customHeight="1"/>
     <row r="219" ht="15.75" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
